--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -7,12 +7,35 @@
     <workbookView xWindow="480" yWindow="84" windowWidth="12420" windowHeight="5856"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Raam</t>
+  </si>
+  <si>
+    <t>mishra</t>
+  </si>
+  <si>
+    <t>a234wd</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,14 +372,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FirstName</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>a234wd</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Raam mishra</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -375,7 +387,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,12 +421,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="12420" windowHeight="5856"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="12420" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>a242wd</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>saok12</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -384,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +423,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -412,6 +436,37 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -423,7 +478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
